--- a/final_testData.xlsx
+++ b/final_testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F0D767-FFA4-43E6-B8BF-1A2477F8F512}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C287BC8-3E5A-458C-BA8E-344975BE43C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="57">
   <si>
     <t>Test 1</t>
   </si>
@@ -184,304 +184,19 @@
     <t>Success</t>
   </si>
   <si>
-    <t>Training Time: 3.1368799209594727 Agent Travel Time: 4.962818622589111</t>
+    <t>Run</t>
   </si>
   <si>
-    <t>Run #2</t>
+    <t>Agent Travel Time</t>
   </si>
   <si>
-    <t>Training Time: 3.0590860843658447 Agent Travel Time: 4.550673961639404</t>
+    <t>Final VersinoTraining Time</t>
   </si>
   <si>
-    <t>Run #3</t>
+    <t>First Version Training Time</t>
   </si>
   <si>
-    <t>Training Time: 3.065563440322876 Agent Travel Time: 3.7414278984069824</t>
-  </si>
-  <si>
-    <t>Run #4</t>
-  </si>
-  <si>
-    <t>Training Time: 3.071345806121826 Agent Travel Time: 3.638824939727783</t>
-  </si>
-  <si>
-    <t>Run #5</t>
-  </si>
-  <si>
-    <t>Training Time: 3.084177255630493 Agent Travel Time: 2.611569404602051</t>
-  </si>
-  <si>
-    <t>Run #6</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0685877799987793 Agent Travel Time: 3.947122573852539</t>
-  </si>
-  <si>
-    <t>Run #7</t>
-  </si>
-  <si>
-    <t>Training Time: 3.065608024597168 Agent Travel Time: 2.5130321979522705</t>
-  </si>
-  <si>
-    <t>Run #8</t>
-  </si>
-  <si>
-    <t>Training Time: 3.059607744216919 Agent Travel Time: 4.035181045532227</t>
-  </si>
-  <si>
-    <t>Run #9</t>
-  </si>
-  <si>
-    <t>Training Time: 3.085160493850708 Agent Travel Time: 6.761320352554321</t>
-  </si>
-  <si>
-    <t>Run #10</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0647776126861572 Agent Travel Time: 5.077264308929443</t>
-  </si>
-  <si>
-    <t>Run #11</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0732014179229736 Agent Travel Time: 5.464723110198975</t>
-  </si>
-  <si>
-    <t>Run #12</t>
-  </si>
-  <si>
-    <t>Training Time: 3.067636251449585 Agent Travel Time: 4.240360975265503</t>
-  </si>
-  <si>
-    <t>Run #13</t>
-  </si>
-  <si>
-    <t>Training Time: 3.053834915161133 Agent Travel Time: 4.440064907073975</t>
-  </si>
-  <si>
-    <t>Run #14</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0885043144226074 Agent Travel Time: 4.646507740020752</t>
-  </si>
-  <si>
-    <t>Run #15</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0612895488739014 Agent Travel Time: 6.878652334213257</t>
-  </si>
-  <si>
-    <t>Run #16</t>
-  </si>
-  <si>
-    <t>Training Time: 3.062333822250366 Agent Travel Time: 2.919341564178467</t>
-  </si>
-  <si>
-    <t>Run #17</t>
-  </si>
-  <si>
-    <t>Training Time: 3.061525583267212 Agent Travel Time: 4.3451762199401855</t>
-  </si>
-  <si>
-    <t>Run #18</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0660665035247803 Agent Travel Time: 3.4327712059020996</t>
-  </si>
-  <si>
-    <t>Run #19</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0638716220855713 Agent Travel Time: 5.65362548828125</t>
-  </si>
-  <si>
-    <t>Run #20</t>
-  </si>
-  <si>
-    <t>Training Time: 3.063660144805908 Agent Travel Time: 4.941170930862427</t>
-  </si>
-  <si>
-    <t>Run #21</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0611770153045654 Agent Travel Time: 4.140928506851196</t>
-  </si>
-  <si>
-    <t>Run #22</t>
-  </si>
-  <si>
-    <t>Training Time: 3.05936861038208 Agent Travel Time: 3.2193872928619385</t>
-  </si>
-  <si>
-    <t>Run #23</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0699338912963867 Agent Travel Time: 5.562994718551636</t>
-  </si>
-  <si>
-    <t>Run #24</t>
-  </si>
-  <si>
-    <t>Training Time: 3.06710147857666 Agent Travel Time: 4.143159866333008</t>
-  </si>
-  <si>
-    <t>Run #25</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0771102905273438 Agent Travel Time: 8.185742139816284</t>
-  </si>
-  <si>
-    <t>Run #26</t>
-  </si>
-  <si>
-    <t>Training Time: 3.075228214263916 Agent Travel Time: 7.484904050827026</t>
-  </si>
-  <si>
-    <t>Run #27</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0751845836639404 Agent Travel Time: 3.5324604511260986</t>
-  </si>
-  <si>
-    <t>Run #28</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0911850929260254 Agent Travel Time: 6.479414939880371</t>
-  </si>
-  <si>
-    <t>Run #29</t>
-  </si>
-  <si>
-    <t>Training Time: 3.116576910018921 Agent Travel Time: 3.429799795150757</t>
-  </si>
-  <si>
-    <t>Run #30</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0972607135772705 Agent Travel Time: 3.122997760772705</t>
-  </si>
-  <si>
-    <t>Run #31</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0530624389648438 Agent Travel Time: 2.2083797454833984</t>
-  </si>
-  <si>
-    <t>Run #32</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0693881511688232 Agent Travel Time: 2.920135259628296</t>
-  </si>
-  <si>
-    <t>Run #33</t>
-  </si>
-  <si>
-    <t>Training Time: 3.064088821411133 Agent Travel Time: 4.150098562240601</t>
-  </si>
-  <si>
-    <t>Run #34</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0638315677642822 Agent Travel Time: 2.714216947555542</t>
-  </si>
-  <si>
-    <t>Run #35</t>
-  </si>
-  <si>
-    <t>Training Time: 3.1138882637023926 Agent Travel Time: 6.161032438278198</t>
-  </si>
-  <si>
-    <t>Run #36</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0492465496063232 Agent Travel Time: 4.335737943649292</t>
-  </si>
-  <si>
-    <t>Run #37</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0734972953796387 Agent Travel Time: 4.152998208999634</t>
-  </si>
-  <si>
-    <t>Run #38</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0633153915405273 Agent Travel Time: 5.143136501312256</t>
-  </si>
-  <si>
-    <t>Run #39</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0667874813079834 Agent Travel Time: 5.75794529914856</t>
-  </si>
-  <si>
-    <t>Run #40</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0672414302825928 Agent Travel Time: 4.548685073852539</t>
-  </si>
-  <si>
-    <t>Run #41</t>
-  </si>
-  <si>
-    <t>Training Time: 3.07395601272583 Agent Travel Time: 2.105541229248047</t>
-  </si>
-  <si>
-    <t>Run #42</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0653083324432373 Agent Travel Time: 3.9355130195617676</t>
-  </si>
-  <si>
-    <t>Run #43</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0628225803375244 Agent Travel Time: 7.27245306968689</t>
-  </si>
-  <si>
-    <t>Run #44</t>
-  </si>
-  <si>
-    <t>Training Time: 3.070241689682007 Agent Travel Time: 6.152368783950806</t>
-  </si>
-  <si>
-    <t>Run #45</t>
-  </si>
-  <si>
-    <t>Training Time: 3.0802481174468994 Agent Travel Time: 3.8260324001312256</t>
-  </si>
-  <si>
-    <t>Run #46</t>
-  </si>
-  <si>
-    <t>Training Time: 3.05856990814209 Agent Travel Time: 3.731785774230957</t>
-  </si>
-  <si>
-    <t>Run #47</t>
-  </si>
-  <si>
-    <t>Training Time: 4.816541433334351 Agent Travel Time: 3.425586700439453</t>
-  </si>
-  <si>
-    <t>Run #48</t>
-  </si>
-  <si>
-    <t>Training Time: 4.777059316635132 Agent Travel Time: 8.075778484344482</t>
-  </si>
-  <si>
-    <t>Run #49</t>
-  </si>
-  <si>
-    <t>Training Time: 4.895946979522705 Agent Travel Time: 5.558403491973877</t>
-  </si>
-  <si>
-    <t>Run #50</t>
-  </si>
-  <si>
-    <t>Training Time: 4.845299959182739 Agent Travel Time: 3.221951961517334</t>
-  </si>
-  <si>
-    <t>Run #1</t>
+    <t>Training Time</t>
   </si>
 </sst>
 </file>
@@ -576,14 +291,1278 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Success</a:t>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Traing</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Rate</a:t>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Time Comparsion</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Improved Version </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9628186225891104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5506739616393999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7414278984069802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6388249397277801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6115694046020499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9471225738525302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5130321979522701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0351810455322203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7613203525543204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0772643089294398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70EB-416A-90AD-CDCD60F675F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>First Version</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E9C2-457A-9ED5-C26D0648C8CD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.090624094009399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0659065246582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.062185287475501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.1159789562225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0947728157043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0709562301635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.059767246246301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.075997829437201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.078179836273099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.0599815845489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70EB-416A-90AD-CDCD60F675F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="26645103"/>
+        <c:axId val="29492655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="26645103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
             <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29492655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="29492655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26645103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Agent Travel Time Comparsion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Improved Version</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9628186225891104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5506739616393999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7414278984069802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6388249397277801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6115694046020499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9471225738525302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5130321979522701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0351810455322203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7613203525543204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0772643089294398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4330-468A-863E-83B3DE1A2CF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>First Version</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0504961013793901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5554606914520201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.04357862472534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1651053428649902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6115241050720202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9309914112090998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.51027488708496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1418094635009703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1567904949188197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8590283393859801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4330-468A-863E-83B3DE1A2CF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="284691903"/>
+        <c:axId val="29491407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="284691903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29491407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="29491407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284691903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Imprved</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ersIon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Success Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -638,6 +1617,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EB31-4C55-8EA9-C2609F444C8F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -653,7 +1637,69 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EB31-4C55-8EA9-C2609F444C8F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$3</c:f>
@@ -675,17 +1721,325 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9130-4218-A91E-D4FF224E97D9}"/>
+              <c16:uniqueId val="{00000000-08AA-4DFF-AFE8-50088848B6E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>First Version Training Success Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-89DA-4C43-8D02-3931E572C5E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-89DA-4C43-8D02-3931E572C5E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Success</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74AB-4A98-95D5-E883B8E23C46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -783,6 +2137,414 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>First Version Training Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.090624094009399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0659065246582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.062185287475501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.1159789562225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0947728157043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0709562301635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.059767246246301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.075997829437201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.078179836273099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.0599815845489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE54-4AA1-A2CB-201E5EB5B2BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="817568672"/>
+        <c:axId val="1124569136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="817568672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124569136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1124569136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="817568672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -823,8 +2585,168 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -881,7 +2803,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -932,13 +2854,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -949,19 +2864,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -999,6 +2907,1026 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1310,6 +4238,1028 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1346,23 +5296,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>34427</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DF619-CF27-44F7-BA0F-EA4FF5C867D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF218F5F-0EC6-4256-B34B-AA539E7768E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,6 +5325,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99295</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>84749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>315587</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57380</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83800F65-8D61-4AE6-ACC0-9E120549112B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>367511</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>58256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>344872</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1A6F5B-12AF-41BD-AF31-0A6F9DCC067C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204947</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>158928</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>92681</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD4A636-8C08-4037-AB26-EBD6FAED6504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>468312</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBC718D-0263-45B6-9A74-2A8E329F223F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1647,14 +5741,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AZ161"/>
+  <dimension ref="A1:AZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1884,8 +5981,8 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <f>COUNT(B2:AY2)</f>
-        <v>23</v>
+        <f>COUNT(B2:AY2)/50</f>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
@@ -1974,511 +6071,719 @@
         <v>1</v>
       </c>
       <c r="AZ3">
-        <f>COUNT(B3:AY3)</f>
-        <v>27</v>
+        <f>COUNT(B3:AY3)/50</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3.13687992095947</v>
+      </c>
+      <c r="D7">
+        <v>4.9628186225891104</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>15.090624094009399</v>
+      </c>
+      <c r="L7">
+        <v>5.0504961013793901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3.0590860843658398</v>
+      </c>
+      <c r="D8">
+        <v>4.5506739616393999</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>15.0659065246582</v>
+      </c>
+      <c r="L8">
+        <v>4.5554606914520201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3.0655634403228702</v>
+      </c>
+      <c r="D9">
+        <v>3.7414278984069802</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>15.062185287475501</v>
+      </c>
+      <c r="L9">
+        <v>4.04357862472534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>3.07134580612182</v>
+      </c>
+      <c r="D10">
+        <v>3.6388249397277801</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>15.1159789562225</v>
+      </c>
+      <c r="L10">
+        <v>5.1651053428649902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>3.0841772556304901</v>
+      </c>
+      <c r="D11">
+        <v>2.6115694046020499</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>15.0947728157043</v>
+      </c>
+      <c r="L11">
+        <v>2.6115241050720202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>3.06858777999877</v>
+      </c>
+      <c r="D12">
+        <v>3.9471225738525302</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>15.0709562301635</v>
+      </c>
+      <c r="L12">
+        <v>3.9309914112090998</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="L13" t="s">
-        <v>151</v>
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>3.06560802459716</v>
+      </c>
+      <c r="D13">
+        <v>2.5130321979522701</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>15.059767246246301</v>
+      </c>
+      <c r="L13">
+        <v>2.51027488708496</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="L14" t="s">
-        <v>52</v>
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3.0596077442169101</v>
+      </c>
+      <c r="D14">
+        <v>4.0351810455322203</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>15.075997829437201</v>
+      </c>
+      <c r="L14">
+        <v>4.1418094635009703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>3.0851604938507</v>
+      </c>
+      <c r="D15">
+        <v>6.7613203525543204</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>15.078179836273099</v>
+      </c>
+      <c r="L15">
+        <v>6.1567904949188197</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="L16" t="s">
-        <v>53</v>
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>3.0647776126861501</v>
+      </c>
+      <c r="D16">
+        <v>5.0772643089294398</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>15.0599815845489</v>
+      </c>
+      <c r="L16">
+        <v>5.8590283393859801</v>
       </c>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" t="s">
-        <v>54</v>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>3.0732014179229701</v>
+      </c>
+      <c r="D17">
+        <v>5.4647231101989702</v>
+      </c>
+      <c r="I17">
+        <f>COUNT(I7:I16)/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="J17">
+        <f>COUNT(J7:J16)/10</f>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L19" t="s">
-        <v>55</v>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>3.0676362514495801</v>
+      </c>
+      <c r="D18">
+        <v>4.2403609752655003</v>
       </c>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L20" t="s">
-        <v>56</v>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>3.0538349151611301</v>
+      </c>
+      <c r="D19">
+        <v>4.4400649070739702</v>
       </c>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L22" t="s">
-        <v>57</v>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>3.0885043144225999</v>
+      </c>
+      <c r="D20">
+        <v>4.6465077400207502</v>
       </c>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L23" t="s">
-        <v>58</v>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>3.0612895488739</v>
+      </c>
+      <c r="D21">
+        <v>6.8786523342132497</v>
       </c>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L25" t="s">
-        <v>59</v>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>3.06233382225036</v>
+      </c>
+      <c r="D22">
+        <v>2.9193415641784601</v>
       </c>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L26" t="s">
-        <v>60</v>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>3.0615255832672101</v>
+      </c>
+      <c r="D23">
+        <v>4.3451762199401802</v>
       </c>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L28" t="s">
-        <v>61</v>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>3.0660665035247798</v>
+      </c>
+      <c r="D24">
+        <v>3.4327712059020898</v>
       </c>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L29" t="s">
-        <v>62</v>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>3.06387162208557</v>
+      </c>
+      <c r="D25">
+        <v>5.65362548828125</v>
       </c>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L31" t="s">
-        <v>63</v>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>3.0636601448059002</v>
+      </c>
+      <c r="D26">
+        <v>4.9411709308624197</v>
       </c>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L32" t="s">
-        <v>64</v>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>3.0611770153045601</v>
+      </c>
+      <c r="D27">
+        <v>4.1409285068511901</v>
       </c>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L34" t="s">
-        <v>65</v>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>3.0593686103820801</v>
+      </c>
+      <c r="D28">
+        <v>3.21938729286193</v>
       </c>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L35" t="s">
-        <v>66</v>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>3.0699338912963801</v>
+      </c>
+      <c r="D29">
+        <v>5.5629947185516304</v>
       </c>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L37" t="s">
-        <v>67</v>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>3.0671014785766602</v>
+      </c>
+      <c r="D30">
+        <v>4.1431598663329998</v>
       </c>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L38" t="s">
-        <v>68</v>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>3.0771102905273402</v>
+      </c>
+      <c r="D31">
+        <v>8.1857421398162806</v>
       </c>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L40" t="s">
-        <v>69</v>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>3.0752282142639098</v>
+      </c>
+      <c r="D32">
+        <v>7.4849040508270201</v>
       </c>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L41" t="s">
-        <v>70</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>3.07518458366394</v>
+      </c>
+      <c r="D33">
+        <v>3.5324604511260902</v>
       </c>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L43" t="s">
-        <v>71</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>3.0911850929260201</v>
+      </c>
+      <c r="D34">
+        <v>6.4794149398803702</v>
       </c>
     </row>
-    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L44" t="s">
-        <v>72</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>3.11657691001892</v>
+      </c>
+      <c r="D35">
+        <v>3.4297997951507502</v>
       </c>
     </row>
-    <row r="46" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L46" t="s">
-        <v>73</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>3.0972607135772701</v>
+      </c>
+      <c r="D36">
+        <v>3.1229977607727002</v>
       </c>
     </row>
-    <row r="47" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L47" t="s">
-        <v>74</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>3.0530624389648402</v>
+      </c>
+      <c r="D37">
+        <v>2.20837974548339</v>
       </c>
     </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L49" t="s">
-        <v>75</v>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>3.0693881511688201</v>
+      </c>
+      <c r="D38">
+        <v>2.9201352596282901</v>
       </c>
     </row>
-    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L50" t="s">
-        <v>76</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>3.0640888214111301</v>
+      </c>
+      <c r="D39">
+        <v>4.1500985622405997</v>
       </c>
     </row>
-    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L52" t="s">
-        <v>77</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>3.06383156776428</v>
+      </c>
+      <c r="D40">
+        <v>2.7142169475555402</v>
       </c>
     </row>
-    <row r="53" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L53" t="s">
-        <v>78</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>3.1138882637023899</v>
+      </c>
+      <c r="D41">
+        <v>6.1610324382781902</v>
       </c>
     </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L55" t="s">
-        <v>79</v>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>3.0492465496063201</v>
+      </c>
+      <c r="D42">
+        <v>4.3357379436492902</v>
       </c>
     </row>
-    <row r="56" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L56" t="s">
-        <v>80</v>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>3.0734972953796298</v>
+      </c>
+      <c r="D43">
+        <v>4.1529982089996302</v>
       </c>
     </row>
-    <row r="58" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L58" t="s">
-        <v>81</v>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>3.0633153915405198</v>
+      </c>
+      <c r="D44">
+        <v>5.1431365013122496</v>
       </c>
     </row>
-    <row r="59" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L59" t="s">
-        <v>82</v>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <v>3.0667874813079798</v>
+      </c>
+      <c r="D45">
+        <v>5.7579452991485596</v>
       </c>
     </row>
-    <row r="61" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L61" t="s">
-        <v>83</v>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>3.0672414302825901</v>
+      </c>
+      <c r="D46">
+        <v>4.5486850738525302</v>
       </c>
     </row>
-    <row r="62" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L62" t="s">
-        <v>84</v>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>3.0739560127258301</v>
+      </c>
+      <c r="D47">
+        <v>2.1055412292480402</v>
       </c>
     </row>
-    <row r="64" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L64" t="s">
-        <v>85</v>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>3.0653083324432302</v>
+      </c>
+      <c r="D48">
+        <v>3.93551301956176</v>
       </c>
     </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L65" t="s">
-        <v>86</v>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>3.06282258033752</v>
+      </c>
+      <c r="D49">
+        <v>7.2724530696868896</v>
       </c>
     </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L67" t="s">
-        <v>87</v>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>3.0702416896820002</v>
+      </c>
+      <c r="D50">
+        <v>6.1523687839508003</v>
       </c>
     </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L68" t="s">
-        <v>88</v>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>3.0802481174468901</v>
+      </c>
+      <c r="D51">
+        <v>3.8260324001312198</v>
       </c>
     </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L70" t="s">
-        <v>89</v>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <v>3.0585699081420898</v>
+      </c>
+      <c r="D52">
+        <v>3.7317857742309499</v>
       </c>
     </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L71" t="s">
-        <v>90</v>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53">
+        <v>4.8165414333343497</v>
+      </c>
+      <c r="D53">
+        <v>3.42558670043945</v>
       </c>
     </row>
-    <row r="73" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L73" t="s">
-        <v>91</v>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <v>4.7770593166351301</v>
+      </c>
+      <c r="D54">
+        <v>8.0757784843444806</v>
       </c>
     </row>
-    <row r="74" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L74" t="s">
-        <v>92</v>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <v>4.8959469795226997</v>
+      </c>
+      <c r="D55">
+        <v>5.5584034919738698</v>
       </c>
     </row>
-    <row r="76" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L103" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="104" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L104" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="106" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L106" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="107" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L107" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="109" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L109" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L110" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L112" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="113" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L113" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L115" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L116" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L121" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L122" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="124" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L124" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="125" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L125" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="127" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L127" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L133" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L134" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L136" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L137" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L139" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="140" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L140" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="142" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L142" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L143" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L145" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L146" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="148" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L148" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="149" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L149" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L151" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="152" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L152" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="154" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L154" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="155" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L155" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="157" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L157" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="158" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L158" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="160" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L160" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="161" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L161" t="s">
-        <v>150</v>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <v>4.8452999591827304</v>
+      </c>
+      <c r="D56">
+        <v>3.22195196151733</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/final_testData.xlsx
+++ b/final_testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21810"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C287BC8-3E5A-458C-BA8E-344975BE43C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC4D2C5-E519-4333-9606-417DAF6FEC68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Test 1</t>
   </si>
@@ -207,13 +207,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -260,7 +260,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -296,7 +296,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Traing</a:t>
+              <a:t>Training</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0">
@@ -339,7 +339,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -407,7 +407,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -534,51 +534,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-E9C2-457A-9ED5-C26D0648C8CD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -606,7 +561,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -753,7 +708,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29492655"/>
@@ -814,7 +769,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="26645103"/>
@@ -856,7 +811,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -893,7 +848,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -907,7 +862,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -973,7 +928,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1041,7 +996,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -1195,7 +1150,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1344,7 +1299,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29491407"/>
@@ -1403,7 +1358,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="284691903"/>
@@ -1445,7 +1400,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1482,7 +1437,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1496,7 +1451,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1591,7 +1546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1671,7 +1626,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -1782,7 +1737,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1819,7 +1774,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1833,7 +1788,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1899,7 +1854,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1979,7 +1934,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -2089,7 +2044,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2126,7 +2081,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2140,7 +2095,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2213,7 +2168,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2265,7 +2220,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2434,7 +2389,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1124569136"/>
@@ -2493,7 +2448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="817568672"/>
@@ -2534,7 +2489,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5743,16 +5698,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">

--- a/final_testData.xlsx
+++ b/final_testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC4D2C5-E519-4333-9606-417DAF6FEC68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F32B6C2-C213-43E2-BD37-D79D552930D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,13 +207,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -260,7 +260,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -339,7 +339,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -407,7 +407,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -561,7 +561,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -618,34 +618,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.090624094009399</c:v>
+                  <c:v>15.112068176269499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0659065246582</c:v>
+                  <c:v>15.0717484951019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.062185287475501</c:v>
+                  <c:v>15.073382616043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.1159789562225</c:v>
+                  <c:v>15.0817766189575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0947728157043</c:v>
+                  <c:v>15.0725104808807</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.0709562301635</c:v>
+                  <c:v>15.060608148574801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.059767246246301</c:v>
+                  <c:v>15.0671849250793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.075997829437201</c:v>
+                  <c:v>15.073896169662399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.078179836273099</c:v>
+                  <c:v>15.0769050121307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.0599815845489</c:v>
+                  <c:v>15.0673081874847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,7 +708,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29492655"/>
@@ -769,7 +769,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="26645103"/>
@@ -811,7 +811,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -848,7 +848,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -862,7 +862,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -928,7 +928,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -996,7 +996,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -1150,7 +1150,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1207,34 +1207,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.0504961013793901</c:v>
+                  <c:v>5.2534370422363201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5554606914520201</c:v>
+                  <c:v>8.90856480598449</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.04357862472534</c:v>
+                  <c:v>5.0422346591949401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1651053428649902</c:v>
+                  <c:v>5.2444312572479204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6115241050720202</c:v>
+                  <c:v>2.71627473831176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9309914112090998</c:v>
+                  <c:v>3.9275028705596902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.51027488708496</c:v>
+                  <c:v>3.3190548419952299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1418094635009703</c:v>
+                  <c:v>3.9262206554412802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1567904949188197</c:v>
+                  <c:v>6.66298127174377</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8590283393859801</c:v>
+                  <c:v>5.8523998260498002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,7 +1299,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29491407"/>
@@ -1358,7 +1358,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="284691903"/>
@@ -1400,7 +1400,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1437,7 +1437,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1451,7 +1451,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1546,7 +1546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1563,7 +1563,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1583,7 +1585,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1626,7 +1628,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -1737,7 +1739,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1774,7 +1776,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1788,7 +1790,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1854,7 +1856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1891,7 +1893,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1934,7 +1938,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -1984,10 +1988,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2044,7 +2048,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2081,7 +2085,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2095,7 +2099,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2168,7 +2172,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2220,7 +2224,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2297,34 +2301,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.090624094009399</c:v>
+                  <c:v>15.112068176269499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0659065246582</c:v>
+                  <c:v>15.0717484951019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.062185287475501</c:v>
+                  <c:v>15.073382616043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.1159789562225</c:v>
+                  <c:v>15.0817766189575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0947728157043</c:v>
+                  <c:v>15.0725104808807</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.0709562301635</c:v>
+                  <c:v>15.060608148574801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.059767246246301</c:v>
+                  <c:v>15.0671849250793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.075997829437201</c:v>
+                  <c:v>15.073896169662399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.078179836273099</c:v>
+                  <c:v>15.0769050121307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.0599815845489</c:v>
+                  <c:v>15.0673081874847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2389,7 +2393,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1124569136"/>
@@ -2448,7 +2452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="817568672"/>
@@ -2489,7 +2493,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5698,16 +5702,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X42" sqref="X42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -6076,10 +6080,10 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>15.090624094009399</v>
+        <v>15.112068176269499</v>
       </c>
       <c r="L7">
-        <v>5.0504961013793901</v>
+        <v>5.2534370422363201</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
@@ -6099,10 +6103,10 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>15.0659065246582</v>
+        <v>15.0717484951019</v>
       </c>
       <c r="L8">
-        <v>4.5554606914520201</v>
+        <v>8.90856480598449</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
@@ -6118,14 +6122,14 @@
       <c r="H9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>1</v>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>15.062185287475501</v>
+        <v>15.073382616043</v>
       </c>
       <c r="L9">
-        <v>4.04357862472534</v>
+        <v>5.0422346591949401</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
@@ -6145,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.1159789562225</v>
+        <v>15.0817766189575</v>
       </c>
       <c r="L10">
-        <v>5.1651053428649902</v>
+        <v>5.2444312572479204</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
@@ -6168,10 +6172,10 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>15.0947728157043</v>
+        <v>15.0725104808807</v>
       </c>
       <c r="L11">
-        <v>2.6115241050720202</v>
+        <v>2.71627473831176</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
@@ -6191,10 +6195,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.0709562301635</v>
+        <v>15.060608148574801</v>
       </c>
       <c r="L12">
-        <v>3.9309914112090998</v>
+        <v>3.9275028705596902</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
@@ -6210,14 +6214,14 @@
       <c r="H13">
         <v>7</v>
       </c>
-      <c r="I13">
-        <v>1</v>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>15.059767246246301</v>
+        <v>15.0671849250793</v>
       </c>
       <c r="L13">
-        <v>2.51027488708496</v>
+        <v>3.3190548419952299</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
@@ -6233,14 +6237,14 @@
       <c r="H14">
         <v>8</v>
       </c>
-      <c r="I14">
-        <v>1</v>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>15.075997829437201</v>
+        <v>15.073896169662399</v>
       </c>
       <c r="L14">
-        <v>4.1418094635009703</v>
+        <v>3.9262206554412802</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
@@ -6256,14 +6260,14 @@
       <c r="H15">
         <v>9</v>
       </c>
-      <c r="I15">
-        <v>1</v>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>15.078179836273099</v>
+        <v>15.0769050121307</v>
       </c>
       <c r="L15">
-        <v>6.1567904949188197</v>
+        <v>6.66298127174377</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
@@ -6283,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.0599815845489</v>
+        <v>15.0673081874847</v>
       </c>
       <c r="L16">
-        <v>5.8590283393859801</v>
+        <v>5.8523998260498002</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -6301,11 +6305,11 @@
       </c>
       <c r="I17">
         <f>COUNT(I7:I16)/10</f>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="J17">
         <f>COUNT(J7:J16)/10</f>
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">

--- a/final_testData.xlsx
+++ b/final_testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21810"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F32B6C2-C213-43E2-BD37-D79D552930D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459945DD-A67F-4A9F-83C6-E8564BBCF39D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
   <si>
     <t>Test 1</t>
   </si>
@@ -207,13 +207,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -260,7 +260,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -339,7 +339,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -407,7 +407,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -561,7 +561,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -678,6 +678,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>First</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Version's 10 Missions vs. Improved Version's First 10 Missions</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -708,7 +768,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29492655"/>
@@ -739,6 +799,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
@@ -769,7 +889,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="26645103"/>
@@ -811,7 +931,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -848,7 +968,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -862,7 +982,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -903,6 +1023,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32821992391986926"/>
+          <c:y val="1.5460244164731702E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -928,7 +1056,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -996,7 +1124,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -1150,7 +1278,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1266,6 +1394,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>First Version's 10 Missions vs. Improved Version's First 10 Missions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1299,7 +1482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29491407"/>
@@ -1330,6 +1513,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1358,7 +1601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="284691903"/>
@@ -1400,7 +1643,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1437,7 +1680,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1451,7 +1694,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1511,7 +1754,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Success Rate</a:t>
+              <a:t> Training Success Rate</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1">
               <a:solidFill>
@@ -1546,7 +1789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1628,7 +1871,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -1739,7 +1982,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1776,7 +2019,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1790,7 +2033,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1856,7 +2099,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1938,7 +2181,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -2048,7 +2291,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2085,7 +2328,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2099,7 +2342,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2172,7 +2415,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2224,7 +2467,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2359,6 +2602,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Mission</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> #</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2393,7 +2696,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1124569136"/>
@@ -2407,6 +2710,7 @@
         <c:axId val="1124569136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2424,6 +2728,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Time (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2452,7 +2812,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="817568672"/>
@@ -2493,7 +2853,529 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Agent Travel Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.2534370422363201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.90856480598449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0422346591949401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2444312572479204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.71627473831176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9275028705596902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3190548419952299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9262206554412802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.66298127174377</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8523998260498002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC72-47AE-9E25-9A434922511B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1751297471"/>
+        <c:axId val="1458408943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1751297471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Mission</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> #</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1458408943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1458408943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751297471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2704,6 +3586,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4749,6 +5671,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5433,6 +6858,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89203</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>20768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>943328</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>7516</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EF9565-D76A-4A5F-8C38-42B59C417514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5702,16 +7163,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X42" sqref="X42"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">

--- a/final_testData.xlsx
+++ b/final_testData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459945DD-A67F-4A9F-83C6-E8564BBCF39D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756F7F70-0686-410B-9E68-7E5DA4A74B05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Test 1</t>
   </si>
@@ -198,6 +198,12 @@
   <si>
     <t>Training Time</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>STDV</t>
+  </si>
 </sst>
 </file>
 
@@ -207,13 +213,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -260,7 +266,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -339,7 +345,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -407,7 +413,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -561,7 +567,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -734,7 +740,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -768,7 +774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29492655"/>
@@ -855,7 +861,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -889,7 +895,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="26645103"/>
@@ -931,7 +937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -968,7 +974,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -982,7 +988,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1056,7 +1062,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1124,7 +1130,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -1278,7 +1284,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1445,7 +1451,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1482,7 +1488,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29491407"/>
@@ -1569,7 +1575,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1601,7 +1607,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="284691903"/>
@@ -1643,7 +1649,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1680,7 +1686,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1694,7 +1700,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1789,7 +1795,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1871,7 +1877,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -1982,7 +1988,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2019,7 +2025,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2033,7 +2039,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2099,7 +2105,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2181,7 +2187,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -2291,7 +2297,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2328,7 +2334,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2342,7 +2348,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2415,7 +2421,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2467,7 +2473,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2658,7 +2664,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2696,7 +2702,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1124569136"/>
@@ -2780,7 +2786,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2812,7 +2818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="817568672"/>
@@ -2853,7 +2859,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2867,7 +2873,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2934,7 +2940,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2986,7 +2992,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3177,7 +3183,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3215,7 +3221,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1458408943"/>
@@ -3302,7 +3308,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3334,7 +3340,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1751297471"/>
@@ -3375,7 +3381,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6680,16 +6686,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>226218</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>405512</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11476</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>34427</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>258006</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23222</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6716,16 +6722,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>99295</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>84749</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>267384</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>315587</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57380</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>483676</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>102203</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7161,18 +7167,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AZ56"/>
+  <dimension ref="A1:AZ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -7754,7 +7760,7 @@
         <v>5.8523998260498002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -7772,8 +7778,16 @@
         <f>COUNT(J7:J16)/10</f>
         <v>0.7</v>
       </c>
+      <c r="K17">
+        <f>AVERAGE(K7:K16)</f>
+        <v>15.075738883018451</v>
+      </c>
+      <c r="L17">
+        <f>AVERAGE(L7:L16)</f>
+        <v>5.0853101968765193</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -7783,8 +7797,19 @@
       <c r="D18">
         <v>4.2403609752655003</v>
       </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE(K7:K17)</f>
+        <v>15.075738883018452</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGE(L7:L17)</f>
+        <v>5.0853101968765193</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -7794,8 +7819,19 @@
       <c r="D19">
         <v>4.4400649070739702</v>
       </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19">
+        <f>STDEVA(K7:K18)</f>
+        <v>1.2671051371920681E-2</v>
+      </c>
+      <c r="L19">
+        <f>STDEVA(L7:L18)</f>
+        <v>1.628333875976403</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -7806,7 +7842,7 @@
         <v>4.6465077400207502</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -7817,7 +7853,7 @@
         <v>6.8786523342132497</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -7828,7 +7864,7 @@
         <v>2.9193415641784601</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -7839,7 +7875,7 @@
         <v>4.3451762199401802</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -7850,7 +7886,7 @@
         <v>3.4327712059020898</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -7861,7 +7897,7 @@
         <v>5.65362548828125</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -7872,7 +7908,7 @@
         <v>4.9411709308624197</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -7883,7 +7919,7 @@
         <v>4.1409285068511901</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -7894,7 +7930,7 @@
         <v>3.21938729286193</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -7905,7 +7941,7 @@
         <v>5.5629947185516304</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -7916,7 +7952,7 @@
         <v>4.1431598663329998</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -7927,7 +7963,7 @@
         <v>8.1857421398162806</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -8200,6 +8236,32 @@
       </c>
       <c r="D56">
         <v>3.22195196151733</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <f>AVERAGE(B7:B56)</f>
+        <v>3.212863736152646</v>
+      </c>
+      <c r="D57">
+        <f>AVERAGE(D7:D56)</f>
+        <v>4.550024003982541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <f>STDEVA(B7:B57)</f>
+        <v>0.47838542840187331</v>
+      </c>
+      <c r="D58">
+        <f>STDEVA(D7:D57)</f>
+        <v>1.4855772043014039</v>
       </c>
     </row>
   </sheetData>
